--- a/data/MAG_normalisation_explanation.xlsx
+++ b/data/MAG_normalisation_explanation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anttonalberdi/github/domesticat/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFBF85DC-50D3-2F46-A55F-A0D256807D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3105B461-B9B9-DC4B-8B3E-4B2D0D77FA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{783DA7D9-3F95-9142-8336-725EF6714EF7}"/>
+    <workbookView xWindow="0" yWindow="6480" windowWidth="35840" windowHeight="21900" xr2:uid="{783DA7D9-3F95-9142-8336-725EF6714EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>S1</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD63483-A5EF-6945-BA80-AD8D2A1549E1}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,14 +517,14 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <f>E3/E5</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -535,29 +535,29 @@
       </c>
       <c r="J3">
         <f>C3/C5</f>
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M3">
         <f>B3/F3</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N3">
         <f>C3/F3</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R3">
         <f>M3/M5</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="S3">
         <f>N3/N5</f>
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -568,14 +568,14 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <f>E4/E5</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -586,29 +586,29 @@
       </c>
       <c r="J4">
         <f>C4/C5</f>
-        <v>0.4</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M4">
         <f>B4/F4</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N4">
         <f>C4/F4</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R4">
         <f>M4/M5</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="S4">
         <f>N4/N5</f>
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -619,7 +619,7 @@
       </c>
       <c r="C5" s="2">
         <f>SUM(C3:C4)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
         <f>SUM(E3:E4)</f>
@@ -639,11 +639,11 @@
       </c>
       <c r="M5">
         <f>SUM(M3:M4)</f>
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <f>SUM(N3:N4)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="R5">
         <f>SUM(R3:R4)</f>
@@ -683,6 +683,155 @@
       </c>
       <c r="R8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <f>E13/E15</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f>B13/E13</f>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f>C13/E13</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f>I13/I$15</f>
+        <v>0.5</v>
+      </c>
+      <c r="N13">
+        <f>J13/J$15</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <f>E14/E15</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <f>B14/E14</f>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f>C14/E14</f>
+        <v>4</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <f>I14/I$15</f>
+        <v>0.5</v>
+      </c>
+      <c r="N14">
+        <f>J14/J$15</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2">
+        <f>SUM(B13:B14)</f>
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <f>SUM(C13:C14)</f>
+        <v>30</v>
+      </c>
+      <c r="E15" s="2">
+        <f>SUM(E13:E14)</f>
+        <v>15</v>
+      </c>
+      <c r="F15" s="2">
+        <f>SUM(F13:F14)</f>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f>SUM(I13:I14)</f>
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f>SUM(J13:J14)</f>
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <f>SUM(M13:M14)</f>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f>SUM(N13:N14)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/MAG_normalisation_explanation.xlsx
+++ b/data/MAG_normalisation_explanation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anttonalberdi/github/domesticat/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3105B461-B9B9-DC4B-8B3E-4B2D0D77FA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66D2F1A-2A90-6E4B-BADF-C5662969C1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6480" windowWidth="35840" windowHeight="21900" xr2:uid="{783DA7D9-3F95-9142-8336-725EF6714EF7}"/>
+    <workbookView xWindow="-820" yWindow="660" windowWidth="28860" windowHeight="21760" xr2:uid="{783DA7D9-3F95-9142-8336-725EF6714EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>S1</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>the normalisation by MAG length.</t>
+  </si>
+  <si>
+    <t>Iñaki</t>
+  </si>
+  <si>
+    <t>Antton</t>
+  </si>
+  <si>
+    <t>EBI</t>
   </si>
 </sst>
 </file>
@@ -134,10 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,144 +462,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD63483-A5EF-6945-BA80-AD8D2A1549E1}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="189" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="17.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>6</v>
+      <c r="A1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <f>E3/E5</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <f>B3/B5</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J3">
-        <f>C3/C5</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <f>B3/F3</f>
-        <v>15</v>
-      </c>
-      <c r="N3">
-        <f>C3/F3</f>
-        <v>15</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <f>M3/M5</f>
-        <v>0.5</v>
-      </c>
-      <c r="S3">
-        <f>N3/N5</f>
-        <v>0.2</v>
+      <c r="S3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <f>E4/E5</f>
+        <f>E4/E6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f>B4/B6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J4">
+        <f>C4/C6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <f>B4/B5</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J4">
-        <f>C4/C5</f>
-        <v>0.66666666666666663</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <f>B4/F4</f>
@@ -597,187 +565,203 @@
       </c>
       <c r="N4">
         <f>C4/F4</f>
+        <v>15</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f>M4/M6</f>
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <f>N4/N6</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <f>E5/E6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f>B5/B6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J5">
+        <f>C5/C6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f>B5/F5</f>
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <f>C5/F5</f>
         <v>60</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R4">
-        <f>M4/M5</f>
+      <c r="R5">
+        <f>M5/M6</f>
         <v>0.5</v>
       </c>
-      <c r="S4">
-        <f>N4/N5</f>
+      <c r="S5">
+        <f>N5/N6</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
-        <f>SUM(B3:B4)</f>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
+        <f>SUM(B4:B5)</f>
         <v>15</v>
       </c>
-      <c r="C5" s="2">
-        <f>SUM(C3:C4)</f>
+      <c r="C6" s="2">
+        <f>SUM(C4:C5)</f>
         <v>30</v>
       </c>
-      <c r="E5" s="2">
-        <f>SUM(E3:E4)</f>
+      <c r="E6" s="2">
+        <f>SUM(E4:E5)</f>
         <v>15</v>
       </c>
-      <c r="F5" s="2">
-        <f>SUM(F3:F4)</f>
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <f>SUM(I3:I4)</f>
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <f>SUM(J3:J4)</f>
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <f>SUM(M3:M4)</f>
+      <c r="F6" s="2">
+        <f>SUM(F4:F5)</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>SUM(I4:I5)</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>SUM(J4:J5)</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f>SUM(M4:M5)</f>
         <v>30</v>
       </c>
-      <c r="N5">
-        <f>SUM(N3:N4)</f>
+      <c r="N6">
+        <f>SUM(N4:N5)</f>
         <v>75</v>
       </c>
-      <c r="R5">
-        <f>SUM(R3:R4)</f>
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <f>SUM(S3:S4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="R6">
+        <f>SUM(R4:R5)</f>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f>SUM(S4:S5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M8" t="s">
         <v>15</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9" t="s">
         <v>16</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="J13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <f>E13/E15</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <f>B13/E13</f>
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <f>C13/E13</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <f>I13/I$15</f>
-        <v>0.5</v>
-      </c>
-      <c r="N13">
-        <f>J13/J$15</f>
-        <v>0.2</v>
+      <c r="N13" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <f>E14/E15</f>
-        <v>0.33333333333333331</v>
+        <f>E14/E16</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <f>B14/E14</f>
@@ -785,53 +769,247 @@
       </c>
       <c r="J14">
         <f>C14/E14</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f>I14/I$16</f>
+        <v>0.5</v>
+      </c>
+      <c r="N14">
+        <f>J14/J$16</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f>E15/E16</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <f>B15/E15</f>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f>C15/E15</f>
         <v>4</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M14">
-        <f>I14/I$15</f>
+      <c r="M15">
+        <f>I15/I$16</f>
         <v>0.5</v>
       </c>
-      <c r="N14">
-        <f>J14/J$15</f>
+      <c r="N15">
+        <f>J15/J$16</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2">
-        <f>SUM(B13:B14)</f>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <f>SUM(B14:B15)</f>
         <v>15</v>
       </c>
-      <c r="C15" s="2">
-        <f>SUM(C13:C14)</f>
+      <c r="C16" s="2">
+        <f>SUM(C14:C15)</f>
         <v>30</v>
       </c>
-      <c r="E15" s="2">
-        <f>SUM(E13:E14)</f>
+      <c r="E16" s="2">
+        <f>SUM(E14:E15)</f>
         <v>15</v>
       </c>
-      <c r="F15" s="2">
-        <f>SUM(F13:F14)</f>
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <f>SUM(I13:I14)</f>
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <f>SUM(J13:J14)</f>
+      <c r="F16" s="2">
+        <f>SUM(F14:F15)</f>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f>SUM(I14:I15)</f>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f>SUM(J14:J15)</f>
         <v>5</v>
       </c>
-      <c r="M15">
-        <f>SUM(M13:M14)</f>
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <f>SUM(N13:N14)</f>
-        <v>1</v>
+      <c r="M16">
+        <f>SUM(M14:M15)</f>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f>SUM(N14:N15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <f>E21/E23</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <f>B21/E21</f>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f>C21/E21</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="3">
+        <f>I21/I$16*1000000</f>
+        <v>500000</v>
+      </c>
+      <c r="N21" s="3">
+        <f>J21/J$16*1000000</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <f>E22/E23</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <f>B22/E22</f>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f>C22/E22</f>
+        <v>4</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <f>I22/I$16*1000000</f>
+        <v>500000</v>
+      </c>
+      <c r="N22" s="3">
+        <f>J22/J$16*1000000</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2">
+        <f>SUM(B21:B22)</f>
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <f>SUM(C21:C22)</f>
+        <v>30</v>
+      </c>
+      <c r="E23" s="2">
+        <f>SUM(E21:E22)</f>
+        <v>15</v>
+      </c>
+      <c r="F23" s="2">
+        <f>SUM(F21:F22)</f>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f>SUM(I21:I22)</f>
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f>SUM(J21:J22)</f>
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <f>SUM(M21:M22)</f>
+        <v>1000000</v>
+      </c>
+      <c r="N23">
+        <f>SUM(N21:N22)</f>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>

--- a/data/MAG_normalisation_explanation.xlsx
+++ b/data/MAG_normalisation_explanation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anttonalberdi/github/domesticat/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFBF85DC-50D3-2F46-A55F-A0D256807D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66D2F1A-2A90-6E4B-BADF-C5662969C1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{783DA7D9-3F95-9142-8336-725EF6714EF7}"/>
+    <workbookView xWindow="-820" yWindow="660" windowWidth="28860" windowHeight="21760" xr2:uid="{783DA7D9-3F95-9142-8336-725EF6714EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>S1</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>the normalisation by MAG length.</t>
+  </si>
+  <si>
+    <t>Iñaki</t>
+  </si>
+  <si>
+    <t>Antton</t>
+  </si>
+  <si>
+    <t>EBI</t>
   </si>
 </sst>
 </file>
@@ -134,10 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,120 +462,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD63483-A5EF-6945-BA80-AD8D2A1549E1}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="189" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="17.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>6</v>
+      <c r="A1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <f>E3/E5</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <f>B3/B5</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J3">
-        <f>C3/C5</f>
-        <v>0.6</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <f>B3/F3</f>
-        <v>30</v>
-      </c>
-      <c r="N3">
-        <f>C3/F3</f>
-        <v>45</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <f>M3/M5</f>
-        <v>0.8</v>
-      </c>
-      <c r="S3">
-        <f>N3/N5</f>
-        <v>0.75</v>
+      <c r="S3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -574,115 +542,474 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <f>E4/E5</f>
+        <f>E4/E6</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <f>B4/B5</f>
+        <f>B4/B6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J4">
+        <f>C4/C6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J4">
-        <f>C4/C5</f>
-        <v>0.4</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <f>B4/F4</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="N4">
         <f>C4/F4</f>
         <v>15</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f>M4/M6</f>
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <f>N4/N6</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R4">
-        <f>M4/M5</f>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <f>E5/E6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f>B5/B6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J5">
+        <f>C5/C6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f>B5/F5</f>
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <f>C5/F5</f>
+        <v>60</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <f>M5/M6</f>
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <f>N5/N6</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
+        <f>SUM(B4:B5)</f>
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <f>SUM(C4:C5)</f>
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
+        <f>SUM(E4:E5)</f>
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <f>SUM(F4:F5)</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>SUM(I4:I5)</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>SUM(J4:J5)</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f>SUM(M4:M5)</f>
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <f>SUM(N4:N5)</f>
+        <v>75</v>
+      </c>
+      <c r="R6">
+        <f>SUM(R4:R5)</f>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f>SUM(S4:S5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <f>E14/E16</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f>B14/E14</f>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f>C14/E14</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f>I14/I$16</f>
+        <v>0.5</v>
+      </c>
+      <c r="N14">
+        <f>J14/J$16</f>
         <v>0.2</v>
       </c>
-      <c r="S4">
-        <f>N4/N5</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
-        <f>SUM(B3:B4)</f>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f>E15/E16</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <f>B15/E15</f>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f>C15/E15</f>
+        <v>4</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <f>I15/I$16</f>
+        <v>0.5</v>
+      </c>
+      <c r="N15">
+        <f>J15/J$16</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <f>SUM(B14:B15)</f>
         <v>15</v>
       </c>
-      <c r="C5" s="2">
-        <f>SUM(C3:C4)</f>
-        <v>25</v>
-      </c>
-      <c r="E5" s="2">
-        <f>SUM(E3:E4)</f>
+      <c r="C16" s="2">
+        <f>SUM(C14:C15)</f>
+        <v>30</v>
+      </c>
+      <c r="E16" s="2">
+        <f>SUM(E14:E15)</f>
         <v>15</v>
       </c>
-      <c r="F5" s="2">
-        <f>SUM(F3:F4)</f>
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <f>SUM(I3:I4)</f>
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <f>SUM(J3:J4)</f>
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <f>SUM(M3:M4)</f>
-        <v>37.5</v>
-      </c>
-      <c r="N5">
-        <f>SUM(N3:N4)</f>
-        <v>60</v>
-      </c>
-      <c r="R5">
-        <f>SUM(R3:R4)</f>
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <f>SUM(S3:S4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="F16" s="2">
+        <f>SUM(F14:F15)</f>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f>SUM(I14:I15)</f>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f>SUM(J14:J15)</f>
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <f>SUM(M14:M15)</f>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f>SUM(N14:N15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <f>E21/E23</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <f>B21/E21</f>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f>C21/E21</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="3">
+        <f>I21/I$16*1000000</f>
+        <v>500000</v>
+      </c>
+      <c r="N21" s="3">
+        <f>J21/J$16*1000000</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <f>E22/E23</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <f>B22/E22</f>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f>C22/E22</f>
+        <v>4</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <f>I22/I$16*1000000</f>
+        <v>500000</v>
+      </c>
+      <c r="N22" s="3">
+        <f>J22/J$16*1000000</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2">
+        <f>SUM(B21:B22)</f>
         <v>15</v>
       </c>
-      <c r="R7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R8" t="s">
-        <v>18</v>
+      <c r="C23" s="2">
+        <f>SUM(C21:C22)</f>
+        <v>30</v>
+      </c>
+      <c r="E23" s="2">
+        <f>SUM(E21:E22)</f>
+        <v>15</v>
+      </c>
+      <c r="F23" s="2">
+        <f>SUM(F21:F22)</f>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f>SUM(I21:I22)</f>
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f>SUM(J21:J22)</f>
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <f>SUM(M21:M22)</f>
+        <v>1000000</v>
+      </c>
+      <c r="N23">
+        <f>SUM(N21:N22)</f>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
